--- a/docs/odh/obf-Additive-extension.xlsx
+++ b/docs/odh/obf-Additive-extension.xlsx
@@ -223,7 +223,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Substance)</t>
+Reference(Substance)</t>
   </si>
   <si>
     <t>Value of extension</t>
